--- a/biology/Zoologie/Hyles_livornicoides/Hyles_livornicoides.xlsx
+++ b/biology/Zoologie/Hyles_livornicoides/Hyles_livornicoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hyles livornicoides est une espèce de lépidoptères appartenant à la famille des sphingidés, sous-famille des Macroglossinae, à la tribu des Macroglossini, à la sous-tribu des Choerocampina, et au genre Hyles. L'espèce est endémique du continent Australien.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Envergure du mâle : 60 mm.
 			Face dorsale du mâle MHNT
@@ -545,7 +559,9 @@
           <t>Réparation et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Répartition
 L'espèce se trouve dans la Nouvelle-Galles du Sud, le Territoire du Nord, au Queensland, au Victoria et en Australie-Occidentale.
@@ -577,7 +593,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les chenilles se nourrissent sur le pourpier commun, sur le genre Boerhavia, notamment Boerhavia schomburgkiana et Boerhavia diffusa, mais aussi Vitis vinifera et Tribulus terrestris. Les individus sont grégaires et vivent en grandes colonies.
 </t>
@@ -608,16 +626,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce a été décrite par l'entomologiste australien Thomas Pennington Lucas en 1892, sous le nom initial de Deilephila livornicoides.
-Synonymie
-Deilephila livornicoides Lucas, T.P. 1892 Protonyme
-Hyles linearis T.P. Lucas, 1892
-Phryxus australasiae Tutt, 1904
-Nom vernaculaire
-Les chenilles sont connues en Australie sous le nom de Yeperenye Caterpillar.
-</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>L'espèce a été décrite par l'entomologiste australien Thomas Pennington Lucas en 1892, sous le nom initial de Deilephila livornicoides.</t>
         </is>
       </c>
     </row>
@@ -642,10 +655,87 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Deilephila livornicoides Lucas, T.P. 1892 Protonyme
+Hyles linearis T.P. Lucas, 1892
+Phryxus australasiae Tutt, 1904</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hyles_livornicoides</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hyles_livornicoides</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les chenilles sont connues en Australie sous le nom de Yeperenye Caterpillar.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hyles_livornicoides</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hyles_livornicoides</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Hyles livornicoides et l'Homme</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Les larves sont utilisées comme nourriture par les Aborigènes. Ils font jeuner les chenilles un jour ou deux avant de les griller. Les chenilles cuites ont un goût savoureux agréable et peuvent être stockées pendant une longue période.
 </t>
